--- a/src/dataframe_library/sample_data/weight_data.xlsx
+++ b/src/dataframe_library/sample_data/weight_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>group1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>B</t>
@@ -411,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,29 +442,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
@@ -463,46 +472,46 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2">
         <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
